--- a/fundamentos de sistemas de informacao/aula3 - infraestrutura e seguranca de sistemas de informacao/Tabela Pratica 3_.xlsx
+++ b/fundamentos de sistemas de informacao/aula3 - infraestrutura e seguranca de sistemas de informacao/Tabela Pratica 3_.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92012176\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55329\Desktop\Leonam\Estudos Programação\repositorios\software-engineer\fundamentos de sistemas de informacao\aula3 - infraestrutura e seguranca de sistemas de informacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B1DF443-A216-4B4C-ABF4-A84E24A1310C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{235A38E8-0062-49D6-93DD-ADA7C998B9F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="3" r:id="rId1"/>
+    <sheet name="tabela dinamica" sheetId="2" r:id="rId2"/>
+    <sheet name="original" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="53">
   <si>
     <t>UNIDADE</t>
   </si>
@@ -186,14 +190,23 @@
   </si>
   <si>
     <t>Paula Gomes</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de FATURAMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -224,9 +237,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,6 +260,1524 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Tabela Pratica 3_.xlsx]tabela dinamica!Tabela dinâmica1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabela dinamica'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tabela dinamica'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RJ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabela dinamica'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="55329" refreshedDate="45476.830329282406" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="20">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E21" sheet="original"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="UNIDADE" numFmtId="0">
+      <sharedItems count="5">
+        <s v="PR"/>
+        <s v="SP"/>
+        <s v="RJ"/>
+        <s v="MG"/>
+        <s v="RS"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SUPERVISOR" numFmtId="0">
+      <sharedItems count="20">
+        <s v="Maria Santos"/>
+        <s v="Livia Pereira"/>
+        <s v="Thais Lacerda"/>
+        <s v="Marcos Santos"/>
+        <s v="Sofia Souza"/>
+        <s v="João Carlos Moreira"/>
+        <s v="Vitoria Gomes"/>
+        <s v="Kauan Cardoso"/>
+        <s v="Thiago Pereira"/>
+        <s v="Gabriela Soares"/>
+        <s v="João Soares"/>
+        <s v="Douglas Silva"/>
+        <s v="Marta Ribeiro"/>
+        <s v="Miriam Santos"/>
+        <s v="Larissa Ferreira"/>
+        <s v="Daniel Castro"/>
+        <s v="Tiago Azevedo"/>
+        <s v="Paulo Siqueira"/>
+        <s v="Anna Soares"/>
+        <s v="Ágatha Fernandes"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="COLABORADOR" numFmtId="0">
+      <sharedItems count="20">
+        <s v="Paulo Marques"/>
+        <s v="Amanda Pereira"/>
+        <s v="Vitor Carvalho"/>
+        <s v="Yasmin Souza"/>
+        <s v="Laura Melo"/>
+        <s v="Julia Moreira"/>
+        <s v="Mariana Morato"/>
+        <s v="Martim Muniz"/>
+        <s v="Camila Souza Gomes"/>
+        <s v="Nicolas Neto"/>
+        <s v="Clara Amaral"/>
+        <s v="Mateus Solano"/>
+        <s v="Pedro Santos"/>
+        <s v="Manoela Bueno"/>
+        <s v="Daniela Azevedo"/>
+        <s v="Tais Castro"/>
+        <s v="Wagner Suya"/>
+        <s v="Tiago Abrãao"/>
+        <s v="Vito Santana"/>
+        <s v="Paula Gomes"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ANO" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2019" maxValue="2021"/>
+    </cacheField>
+    <cacheField name="FATURAMENTO" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="42800"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2021"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2020"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2021"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="2020"/>
+    <n v="25600"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="2019"/>
+    <n v="22000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="2020"/>
+    <n v="13000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="2020"/>
+    <n v="28500"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="2020"/>
+    <n v="31400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="2019"/>
+    <n v="23600"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="2020"/>
+    <n v="11500"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="2019"/>
+    <n v="10300"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="2020"/>
+    <n v="12700"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="12"/>
+    <n v="2020"/>
+    <n v="42800"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="2019"/>
+    <n v="24500"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="2020"/>
+    <n v="31800"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="2020"/>
+    <n v="27060"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="2020"/>
+    <n v="42000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="2019"/>
+    <n v="16500"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="2020"/>
+    <n v="21010"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="2020"/>
+    <n v="35000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="21">
+        <item x="1"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de FATURAMENTO" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A11:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="21">
+        <item x="19"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="21">
+        <item x="1"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de FATURAMENTO" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="21">
+        <item x="1"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de FATURAMENTO" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E21" totalsRowShown="0">
+  <autoFilter ref="A1:E21"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="UNIDADE"/>
+    <tableColumn id="2" name="SUPERVISOR"/>
+    <tableColumn id="3" name="COLABORADOR"/>
+    <tableColumn id="4" name="ANO"/>
+    <tableColumn id="5" name="FATURAMENTO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,21 +2076,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BD1EB9-355D-49EA-AA1A-AEFB802642D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +2108,775 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
+      </c>
+      <c r="E3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2021</v>
+      </c>
+      <c r="E4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>2019</v>
+      </c>
+      <c r="E6">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>2019</v>
+      </c>
+      <c r="E7">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>2021</v>
+      </c>
+      <c r="E8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>2019</v>
+      </c>
+      <c r="E9">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>27060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>2019</v>
+      </c>
+      <c r="E15">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+      <c r="E16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+      <c r="E18">
+        <v>31400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+      <c r="E21">
+        <v>21010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4">
+        <v>35900</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>96600</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>126760</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4">
+        <v>59800</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>160210</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4">
+        <v>479270</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4">
+        <v>35000</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4">
+        <v>31400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4">
+        <v>21010</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4">
+        <v>27060</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4">
+        <v>12700</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
+        <v>11500</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13000</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10300</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4">
+        <v>27060</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4">
+        <v>31400</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4">
+        <v>31800</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4">
+        <v>21010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4">
+        <v>25600</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="4">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="4">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4">
+        <v>42800</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="4">
+        <v>479270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="4">
+        <v>479270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -588,7 +2893,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -605,7 +2910,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -622,7 +2927,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -639,7 +2944,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -656,7 +2961,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -673,7 +2978,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -690,7 +2995,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -707,7 +3012,7 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -724,7 +3029,7 @@
         <v>23600</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -741,7 +3046,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -758,7 +3063,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -775,7 +3080,7 @@
         <v>12700</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -792,7 +3097,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -809,7 +3114,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -826,7 +3131,7 @@
         <v>31800</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -843,7 +3148,7 @@
         <v>27060</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -860,7 +3165,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -877,7 +3182,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -894,7 +3199,7 @@
         <v>21010</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
